--- a/智慧园区.xlsx
+++ b/智慧园区.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19185" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -442,6 +442,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>  </t>
     </r>
     <r>
@@ -618,13 +624,61 @@
     <t>职务</t>
   </si>
   <si>
-    <t>出生地</t>
+    <t>出生地址</t>
   </si>
   <si>
     <t>居住地址</t>
   </si>
   <si>
     <t>出生年月</t>
+  </si>
+  <si>
+    <t>体温状态</t>
+  </si>
+  <si>
+    <t>员工</t>
+  </si>
+  <si>
+    <t>体温</t>
+  </si>
+  <si>
+    <t>上报时间</t>
+  </si>
+  <si>
+    <t>体温记录</t>
+  </si>
+  <si>
+    <t>访客名称</t>
+  </si>
+  <si>
+    <t>使用期限</t>
+  </si>
+  <si>
+    <t>新增访客信息</t>
+  </si>
+  <si>
+    <t>修改访客信息</t>
+  </si>
+  <si>
+    <t>请选择更新版本</t>
+  </si>
+  <si>
+    <t>升级包</t>
+  </si>
+  <si>
+    <t>终端序列号</t>
+  </si>
+  <si>
+    <t>访客类型</t>
+  </si>
+  <si>
+    <t>设备版本号</t>
+  </si>
+  <si>
+    <t>是否升级</t>
+  </si>
+  <si>
+    <t>签到时间</t>
   </si>
 </sst>
 </file>
@@ -652,6 +706,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -667,7 +775,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,93 +828,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,15 +844,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,6 +871,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -829,175 +925,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,17 +1062,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1041,6 +1084,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1051,21 +1109,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,6 +1145,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1116,10 +1170,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,133 +1182,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1613,10 +1667,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1756,6 +1810,86 @@
     <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/智慧园区.xlsx
+++ b/智慧园区.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19185" windowHeight="12855"/>
+    <workbookView windowWidth="22770" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <r>
       <rPr>
@@ -240,7 +240,25 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>'闸机口管理'</t>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闸机口管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
     </r>
     <r>
       <rPr>
@@ -585,100 +603,409 @@
     <t>注册时间</t>
   </si>
   <si>
+    <t>Time of registration</t>
+  </si>
+  <si>
     <t>终端名称</t>
   </si>
   <si>
+    <t>Terminal name</t>
+  </si>
+  <si>
     <t>闸机ID</t>
   </si>
   <si>
+    <t>Gate ID</t>
+  </si>
+  <si>
     <t>升级版本号</t>
   </si>
   <si>
+    <t>Version Update</t>
+  </si>
+  <si>
     <t>升级原因</t>
   </si>
   <si>
+    <t>Reason update</t>
+  </si>
+  <si>
     <t>新增升级包</t>
   </si>
   <si>
+    <t>Upgrade package new add</t>
+  </si>
+  <si>
     <t>修改升级包</t>
   </si>
   <si>
+    <t>Upgrade package modify</t>
+  </si>
+  <si>
     <t>升级包上传</t>
   </si>
   <si>
+    <t>Upgrade package upload</t>
+  </si>
+  <si>
     <t>闸机名称</t>
   </si>
   <si>
+    <t>Gate name</t>
+  </si>
+  <si>
     <t>闸机地点</t>
   </si>
   <si>
+    <t>Gate position</t>
+  </si>
+  <si>
     <t>闸机序列号</t>
   </si>
   <si>
+    <t>Gate serial number</t>
+  </si>
+  <si>
     <t>新增设备管理</t>
   </si>
   <si>
+    <t>equipment management new add</t>
+  </si>
+  <si>
     <t>修改设备管理</t>
   </si>
   <si>
+    <t>equipment management modify</t>
+  </si>
+  <si>
     <t>职务</t>
   </si>
   <si>
+    <t>Job duty</t>
+  </si>
+  <si>
     <t>出生地址</t>
   </si>
   <si>
+    <t>Birth address</t>
+  </si>
+  <si>
     <t>居住地址</t>
   </si>
   <si>
+    <t>Residential Address</t>
+  </si>
+  <si>
     <t>出生年月</t>
   </si>
   <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
     <t>体温状态</t>
   </si>
   <si>
+    <t>Body temperature status</t>
+  </si>
+  <si>
     <t>员工</t>
   </si>
   <si>
+    <t>Employee</t>
+  </si>
+  <si>
     <t>体温</t>
   </si>
   <si>
+    <t>Body temperature</t>
+  </si>
+  <si>
     <t>上报时间</t>
   </si>
   <si>
+    <t>reported time</t>
+  </si>
+  <si>
     <t>体温记录</t>
   </si>
   <si>
+    <t>body temperature record</t>
+  </si>
+  <si>
     <t>访客名称</t>
   </si>
   <si>
+    <t>Visitor name</t>
+  </si>
+  <si>
     <t>使用期限</t>
   </si>
   <si>
+    <t>Period of use</t>
+  </si>
+  <si>
     <t>新增访客信息</t>
   </si>
   <si>
+    <t>visitor information new add</t>
+  </si>
+  <si>
     <t>修改访客信息</t>
   </si>
   <si>
+    <t>visitor information modify</t>
+  </si>
+  <si>
     <t>请选择更新版本</t>
   </si>
   <si>
+    <t>Please select a newer version</t>
+  </si>
+  <si>
     <t>升级包</t>
   </si>
   <si>
+    <t>Upgrade package</t>
+  </si>
+  <si>
     <t>终端序列号</t>
   </si>
   <si>
+    <t>Terminal NO.</t>
+  </si>
+  <si>
     <t>访客类型</t>
   </si>
   <si>
+    <t>Visitor Type</t>
+  </si>
+  <si>
     <t>设备版本号</t>
   </si>
   <si>
+    <t>equipment version NO.</t>
+  </si>
+  <si>
     <t>是否升级</t>
   </si>
   <si>
+    <t>upgrade?</t>
+  </si>
+  <si>
     <t>签到时间</t>
+  </si>
+  <si>
+    <t>Check-in time</t>
+  </si>
+  <si>
+    <t>最小正常体温</t>
+  </si>
+  <si>
+    <t>Minimum normal body temperature</t>
+  </si>
+  <si>
+    <t>最大正常体温</t>
+  </si>
+  <si>
+    <t>Maximum normal body temperature</t>
+  </si>
+  <si>
+    <t>最小异常体温</t>
+  </si>
+  <si>
+    <t>Minimum abnormal body temperature</t>
+  </si>
+  <si>
+    <t>最大异常体温</t>
+  </si>
+  <si>
+    <t>Maximum abnormal body temperature</t>
+  </si>
+  <si>
+    <t>修正温度</t>
+  </si>
+  <si>
+    <t>Temperature to correct</t>
+  </si>
+  <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>湿度</t>
+  </si>
+  <si>
+    <t>humidity</t>
+  </si>
+  <si>
+    <t>反射率</t>
+  </si>
+  <si>
+    <t>Reflectivity</t>
+  </si>
+  <si>
+    <t>发射率</t>
+  </si>
+  <si>
+    <t>Emissivity</t>
+  </si>
+  <si>
+    <t>播报语音</t>
+  </si>
+  <si>
+    <t>Announce voice</t>
+  </si>
+  <si>
+    <t>距离</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>新增设备参数</t>
+  </si>
+  <si>
+    <t>equipment parameters new add</t>
+  </si>
+  <si>
+    <t>修改设备参数</t>
+  </si>
+  <si>
+    <t>equipment parameters modify</t>
+  </si>
+  <si>
+    <t>开启</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>version NO.</t>
+  </si>
+  <si>
+    <t>下载地址</t>
+  </si>
+  <si>
+    <t>link of downloading</t>
+  </si>
+  <si>
+    <t>设备序列号</t>
+  </si>
+  <si>
+    <t>equipment serial number</t>
+  </si>
+  <si>
+    <t>访问时间</t>
+  </si>
+  <si>
+    <t>time of accessing</t>
+  </si>
+  <si>
+    <t>接待人</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>审核取消</t>
+  </si>
+  <si>
+    <t>Review Cancelled</t>
+  </si>
+  <si>
+    <t>请选择你的操作类型</t>
+  </si>
+  <si>
+    <t>Please select your operation type</t>
+  </si>
+  <si>
+    <t>访客管理</t>
+  </si>
+  <si>
+    <t>Visitor Management</t>
+  </si>
+  <si>
+    <t>考勤管理</t>
+  </si>
+  <si>
+    <t>Attendance Management</t>
+  </si>
+  <si>
+    <t>考勤记录</t>
+  </si>
+  <si>
+    <t>Attendance Record</t>
+  </si>
+  <si>
+    <t>考勤设置</t>
+  </si>
+  <si>
+    <t>Attendance settings</t>
+  </si>
+  <si>
+    <t>考勤名称</t>
+  </si>
+  <si>
+    <t>Attendance name</t>
+  </si>
+  <si>
+    <t>考勤地点</t>
+  </si>
+  <si>
+    <t>Attendance location</t>
+  </si>
+  <si>
+    <t>打卡时间</t>
+  </si>
+  <si>
+    <t>card record time</t>
+  </si>
+  <si>
+    <t>新增考勤信息</t>
+  </si>
+  <si>
+    <t>attendance information new add</t>
+  </si>
+  <si>
+    <t>修改考勤时间</t>
+  </si>
+  <si>
+    <t>attendance time modify</t>
+  </si>
+  <si>
+    <t>访客信息管理</t>
+  </si>
+  <si>
+    <t>Visitor Information Management</t>
+  </si>
+  <si>
+    <t>访客申请管理</t>
+  </si>
+  <si>
+    <t>Visitor application management</t>
+  </si>
+  <si>
+    <t>公司层级管理</t>
+  </si>
+  <si>
+    <t>Company level management</t>
+  </si>
+  <si>
+    <t>设备参数管理</t>
+  </si>
+  <si>
+    <t>Equipment parameter management</t>
   </si>
 </sst>
 </file>
@@ -686,12 +1013,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,19 +1034,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <color rgb="FF515A6E"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -730,16 +1048,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,35 +1057,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,9 +1073,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,10 +1133,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -820,9 +1147,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,9 +1169,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,6 +1195,12 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFA31515"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -883,6 +1223,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -895,7 +1307,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +1343,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,31 +1373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,103 +1385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,24 +1402,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1094,6 +1416,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,52 +1494,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,10 +1510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1182,142 +1522,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1667,10 +2010,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1727,169 +2070,548 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/智慧园区.xlsx
+++ b/智慧园区.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="11670"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1013,9 +1013,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1041,92 +1041,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1147,6 +1062,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1155,23 +1106,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,13 +1211,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,25 +1307,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,139 +1385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,6 +1402,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1420,13 +1429,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1446,21 +1474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1472,24 +1485,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1510,10 +1510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1522,133 +1522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2012,8 +2012,8 @@
   <sheetPr/>
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
